--- a/uploads/task.xlsx
+++ b/uploads/task.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -50,37 +50,12 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>oaky</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>not okay</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>54454</t>
-  </si>
-  <si>
-    <t>5452</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>45574454</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -432,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,56 +425,36 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="s" s="0">
-        <v>19</v>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
